--- a/MyTemplates/files/Brick Rasta Template.xlsx
+++ b/MyTemplates/files/Brick Rasta Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrgar\AppData\Local\MRGARGSIRTools\MyTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repo\HEWP-Excel-Addins\MyTemplates\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{184D1443-E21F-40C7-AA4B-E77219B5E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9CAD39-F26A-40DA-A2BB-550EEC798B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2CEA986F-D7B2-4784-B344-2F18C566A883}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Brick Rasta</t>
   </si>
@@ -149,15 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">Say Rs. : </t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Gst</t>
-  </si>
-  <si>
-    <t>Amount + Gst</t>
   </si>
 </sst>
 </file>
@@ -171,7 +162,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,13 +281,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -677,35 +661,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -822,9 +779,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -849,9 +803,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -897,33 +848,21 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -948,9 +887,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -975,9 +911,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1059,11 +992,56 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1415,21 +1393,21 @@
   <dimension ref="A1:O146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.77734375" style="109" customWidth="1"/>
-    <col min="3" max="3" width="69.77734375" style="77" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="110" customWidth="1"/>
-    <col min="5" max="7" width="10.77734375" style="77" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="110" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="125" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="77" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="110" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="126" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.77734375" style="92" customWidth="1"/>
+    <col min="3" max="3" width="69.77734375" style="64" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="93" customWidth="1"/>
+    <col min="5" max="7" width="10.77734375" style="64" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="93" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="108" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="64" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="93" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="109" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.77734375" customWidth="1"/>
     <col min="15" max="15" width="28.5546875" hidden="1" customWidth="1"/>
@@ -1437,620 +1415,620 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="118"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="35.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="121"/>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="35.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+      <c r="A6" s="17">
         <f>IFERROR(LOOKUP(2,1/(ISNUMBER($A$4:$A$5)),$A$4:$A$5),0)+1</f>
         <v>1</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38">
+      <c r="A7" s="17"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29">
         <v>1</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="30">
         <v>400</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="30">
         <v>15</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40">
+      <c r="G7" s="30"/>
+      <c r="H7" s="31">
         <f>D7*IF(OR(E7=0,E7="-"),1,E7)*IF(OR(F7=0,F7="-"),1,F7)*IF(OR(G7=0,G7="-"),1,G7)</f>
         <v>6000</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="44"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38">
+      <c r="A8" s="17"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29">
         <v>1</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="30">
         <v>400</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="30">
         <v>15.5</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40">
+      <c r="G8" s="30"/>
+      <c r="H8" s="31">
         <f>D8*IF(OR(E8=0,E8="-"),1,E8)*IF(OR(F8=0,F8="-"),1,F8)*IF(OR(G8=0,G8="-"),1,G8)</f>
         <v>6200</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38">
+      <c r="A9" s="17"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29">
         <v>1</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="30">
         <v>120</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="30">
         <v>15</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40">
+      <c r="G9" s="30"/>
+      <c r="H9" s="31">
         <f>D9*IF(OR(E9=0,E9="-"),1,E9)*IF(OR(F9=0,F9="-"),1,F9)*IF(OR(G9=0,G9="-"),1,G9)</f>
         <v>1800</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38">
+      <c r="A10" s="17"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29">
         <v>1</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="30">
         <v>100</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="30">
         <v>15</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40">
+      <c r="G10" s="30"/>
+      <c r="H10" s="31">
         <f>D10*IF(OR(E10=0,E10="-"),1,E10)*IF(OR(F10=0,F10="-"),1,F10)*IF(OR(G10=0,G10="-"),1,G10)</f>
         <v>1500</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="48" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49">
+      <c r="G11" s="122"/>
+      <c r="H11" s="39">
         <f>SUM(H7:INDEX(H:H,ROW()-1))</f>
         <v>15500</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52" t="str">
+      <c r="J11" s="41"/>
+      <c r="K11" s="42" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="L11" s="53"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="57" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58">
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="47">
         <f>ROUND(H11*0.0929,3)</f>
         <v>1439.95</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="48">
         <f>IF(B6="14.1",_xlfn.IFS(J12="Labour Rate",4,J12="Through Rate",4,TRUE,""),"")</f>
         <v>4</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="49">
         <f>IF(H12*K12&lt;&gt;0,H12*K12,0)</f>
         <v>5759.8</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="66"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+      <c r="A14" s="17">
         <f>IFERROR(LOOKUP(2,1/(ISNUMBER($A$4:$A$13)),$A$4:$A$13),0)+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38">
+      <c r="A15" s="17"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29">
         <v>1</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="30">
         <v>400</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="30">
         <v>15</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69">
+      <c r="G15" s="57"/>
+      <c r="H15" s="58">
         <f>D15*IF(OR(E15=0,E15="-"),1,E15)*IF(OR(F15=0,F15="-"),1,F15)*IF(OR(G15=0,G15="-"),1,G15)</f>
         <v>6000</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38">
+      <c r="A16" s="17"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29">
         <v>1</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="30">
         <v>400</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="30">
         <v>15.5</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69">
+      <c r="G16" s="57"/>
+      <c r="H16" s="58">
         <f>D16*IF(OR(E16=0,E16="-"),1,E16)*IF(OR(F16=0,F16="-"),1,F16)*IF(OR(G16=0,G16="-"),1,G16)</f>
         <v>6200</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38">
+      <c r="A17" s="17"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29">
         <v>1</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="30">
         <v>120</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="30">
         <v>15</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69">
+      <c r="G17" s="57"/>
+      <c r="H17" s="58">
         <f>D17*IF(OR(E17=0,E17="-"),1,E17)*IF(OR(F17=0,F17="-"),1,F17)*IF(OR(G17=0,G17="-"),1,G17)</f>
         <v>1800</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38">
+      <c r="A18" s="17"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29">
         <v>1</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="30">
         <v>100</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="30">
         <v>15</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69">
+      <c r="G18" s="57"/>
+      <c r="H18" s="58">
         <f>D18*IF(OR(E18=0,E18="-"),1,E18)*IF(OR(F18=0,F18="-"),1,F18)*IF(OR(G18=0,G18="-"),1,G18)</f>
         <v>1500</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="44"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="58">
+      <c r="G19" s="124"/>
+      <c r="H19" s="47">
         <f>SUM(H15:INDEX(H:H,ROW()-1))</f>
         <v>15500</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="58">
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="47">
         <f>ROUND(H19*0.0929,3)</f>
         <v>1439.95</v>
       </c>
-      <c r="I20" s="56" t="s">
+      <c r="I20" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
     </row>
     <row r="21" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="78" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79">
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="65">
         <f>H20/10</f>
         <v>143.995</v>
       </c>
-      <c r="I21" s="56" t="s">
+      <c r="I21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="52">
+      <c r="K21" s="42">
         <f>IF(B14="21.14",_xlfn.IFS(J21="Labour Rate",980,J21="Material Rate",3540,J21="Through Rate",4519,TRUE,""),"")</f>
         <v>4519</v>
       </c>
-      <c r="L21" s="60">
+      <c r="L21" s="49">
         <f>IF(H21*K21&lt;&gt;0,H21*K21,0)</f>
         <v>650713.40500000003</v>
       </c>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="66"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="55"/>
     </row>
     <row r="23" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+      <c r="A23" s="17">
         <f>IFERROR(LOOKUP(2,1/(ISNUMBER($A$4:$A$22)),$A$4:$A$22),0)+1</f>
         <v>3</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="35"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="87"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="68">
+      <c r="A24" s="72"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="57">
         <v>2</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="57">
         <v>400</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69">
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58">
         <f>D24*IF(OR(E24=0,E24="-"),1,E24)*IF(OR(F24=0,F24="-"),1,F24)*IF(OR(G24=0,G24="-"),1,G24)</f>
         <v>800</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="44"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="35"/>
     </row>
     <row r="25" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91">
+      <c r="G25" s="111"/>
+      <c r="H25" s="75">
         <f>SUM(H24:INDEX(H:H,ROW()-1))</f>
         <v>800</v>
       </c>
-      <c r="I25" s="92" t="s">
+      <c r="I25" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="93"/>
-      <c r="K25" s="94" t="str">
+      <c r="J25" s="77"/>
+      <c r="K25" s="78" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="L25" s="95"/>
-    </row>
-    <row r="26" spans="1:14" s="77" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="96" t="s">
+      <c r="L25" s="79"/>
+    </row>
+    <row r="26" spans="1:14" s="64" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="99" t="s">
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="100">
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="83">
         <f>ROUND(H25*0.3048,3)</f>
         <v>243.84</v>
       </c>
-      <c r="I26" s="101" t="s">
+      <c r="I26" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="93" t="s">
+      <c r="J26" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="102">
+      <c r="K26" s="85">
         <f>IF(B23="10.36",_xlfn.IFS(J26="Labour Rate",7,J26="Material Rate",47,J26="Through Rate",54,TRUE,""),"")</f>
         <v>54</v>
       </c>
-      <c r="L26" s="103">
+      <c r="L26" s="86">
         <f>IF(H26*K26&lt;&gt;0,H26*K26,0)</f>
         <v>13167.36</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="104"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="108"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="91"/>
     </row>
     <row r="28" spans="1:14" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" s="111" t="s">
+      <c r="J28" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="112"/>
-      <c r="L28" s="113">
+      <c r="K28" s="95"/>
+      <c r="L28" s="96">
         <f>SUM(L5:INDEX(L:L,ROW()-1))</f>
         <v>669640.56500000006</v>
       </c>
@@ -2058,11 +2036,11 @@
     <row r="29" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29" s="114" t="s">
+      <c r="J29" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="115"/>
-      <c r="L29" s="116">
+      <c r="K29" s="98"/>
+      <c r="L29" s="99">
         <f>$L$28*0.18</f>
         <v>120535.30170000001</v>
       </c>
@@ -2070,11 +2048,11 @@
     <row r="30" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30" s="114" t="s">
+      <c r="J30" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="115"/>
-      <c r="L30" s="116">
+      <c r="K30" s="98"/>
+      <c r="L30" s="99">
         <f>$L$28+$L$29</f>
         <v>790175.86670000013</v>
       </c>
@@ -2082,11 +2060,11 @@
     <row r="31" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31" s="114" t="s">
+      <c r="J31" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="K31" s="115"/>
-      <c r="L31" s="116">
+      <c r="K31" s="98"/>
+      <c r="L31" s="99">
         <f>$L$30*0.01</f>
         <v>7901.7586670000019</v>
       </c>
@@ -2094,75 +2072,123 @@
     <row r="32" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32" s="117" t="s">
+      <c r="J32" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="118"/>
-      <c r="L32" s="119">
+      <c r="K32" s="101"/>
+      <c r="L32" s="102">
         <f>$L$30+$L$31</f>
         <v>798077.62536700012</v>
       </c>
     </row>
-    <row r="33" spans="5:13" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:12" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" s="120" t="s">
+      <c r="J33" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="121"/>
-      <c r="L33" s="109"/>
-    </row>
-    <row r="34" spans="5:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="K33" s="104"/>
+      <c r="L33" s="92"/>
+    </row>
+    <row r="34" spans="5:12" ht="36" x14ac:dyDescent="0.3">
       <c r="H34"/>
-      <c r="I34" s="122" t="s">
+      <c r="I34" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="123" t="str">
+      <c r="J34" s="106" t="str">
         <f>IF(L32&gt;=10000000,ROUND(L32/10000000,2)&amp;" Crore",IF(L32&gt;=100000,ROUND(L32/100000,2)&amp;" Lakh",IF(L32&gt;=1000,ROUND(L32/1000,2)&amp;" Thousand",ROUND(L32,0)))) &amp; " Only"</f>
         <v>7.98 Lakh Only</v>
       </c>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-    </row>
-    <row r="35" spans="5:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L35" s="77"/>
-    </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="5:13" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="5:13" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="5:13" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="5:13" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="5:13" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="5:13" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="5:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+    </row>
+    <row r="35" spans="5:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="64"/>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="5:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E46"/>
-      <c r="F46" s="127" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="127"/>
-      <c r="H46" s="128" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="128" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="128" t="s">
-        <v>39</v>
-      </c>
-      <c r="L46" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="128" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="5:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
@@ -2172,7 +2198,7 @@
       <c r="K47"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="5:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
@@ -2182,7 +2208,7 @@
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="5:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
@@ -3062,112 +3088,21 @@
       <c r="K136"/>
       <c r="L136"/>
     </row>
-    <row r="137" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E137"/>
-      <c r="F137"/>
-      <c r="G137"/>
-      <c r="H137"/>
-      <c r="I137"/>
-      <c r="J137"/>
-      <c r="K137"/>
-      <c r="L137"/>
-    </row>
-    <row r="138" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138"/>
-      <c r="I138"/>
-      <c r="J138"/>
-      <c r="K138"/>
-      <c r="L138"/>
-    </row>
-    <row r="139" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E139"/>
-      <c r="F139"/>
-      <c r="G139"/>
-      <c r="H139"/>
-      <c r="I139"/>
-      <c r="J139"/>
-      <c r="K139"/>
-      <c r="L139"/>
-    </row>
-    <row r="140" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E140"/>
-      <c r="F140"/>
-      <c r="G140"/>
-      <c r="H140"/>
-      <c r="I140"/>
-      <c r="J140"/>
-      <c r="K140"/>
-      <c r="L140"/>
-    </row>
-    <row r="141" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E141"/>
-      <c r="F141"/>
-      <c r="G141"/>
-      <c r="H141"/>
-      <c r="I141"/>
-      <c r="J141"/>
-      <c r="K141"/>
-      <c r="L141"/>
-    </row>
-    <row r="142" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E142"/>
-      <c r="F142"/>
-      <c r="G142"/>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142"/>
-      <c r="K142"/>
-      <c r="L142"/>
-    </row>
-    <row r="143" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
-      <c r="H143"/>
-      <c r="I143"/>
-      <c r="J143"/>
-      <c r="K143"/>
-      <c r="L143"/>
-    </row>
-    <row r="144" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144"/>
-      <c r="K144"/>
-      <c r="L144"/>
-    </row>
-    <row r="145" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E145"/>
-      <c r="F145"/>
-      <c r="G145"/>
-      <c r="H145"/>
-      <c r="I145"/>
-      <c r="J145"/>
-      <c r="K145"/>
-      <c r="L145"/>
-    </row>
-    <row r="146" spans="5:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146"/>
-      <c r="I146"/>
-      <c r="J146"/>
-      <c r="K146"/>
-      <c r="L146"/>
-    </row>
+    <row r="137" spans="5:12" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="5:12" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="5:12" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="5:12" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="5:12" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="5:12" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="5:12" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="5:12" x14ac:dyDescent="0.3"/>
+    <row r="145" x14ac:dyDescent="0.3"/>
+    <row r="146" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="E26:G26"/>
-    <mergeCell ref="F46:G46"/>
     <mergeCell ref="A1:L3"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="E12:G12"/>
